--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pth2-Pth1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pth2-Pth1r.xlsx
@@ -543,7 +543,7 @@
         <v>0.2599963333333333</v>
       </c>
       <c r="H2">
-        <v>0.7799889999999999</v>
+        <v>0.779989</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9296573333333334</v>
+        <v>0.33011</v>
       </c>
       <c r="N2">
-        <v>2.788972</v>
+        <v>0.9903299999999999</v>
       </c>
       <c r="O2">
-        <v>0.09664309490542491</v>
+        <v>0.04888250370346677</v>
       </c>
       <c r="P2">
-        <v>0.1096215385492197</v>
+        <v>0.05014329367814145</v>
       </c>
       <c r="Q2">
-        <v>0.2417074979231111</v>
+        <v>0.08582738959666665</v>
       </c>
       <c r="R2">
-        <v>2.175367481308</v>
+        <v>0.77244650637</v>
       </c>
       <c r="S2">
-        <v>0.09664309490542491</v>
+        <v>0.04888250370346677</v>
       </c>
       <c r="T2">
-        <v>0.1096215385492197</v>
+        <v>0.05014329367814145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +605,7 @@
         <v>0.2599963333333333</v>
       </c>
       <c r="H3">
-        <v>0.7799889999999999</v>
+        <v>0.779989</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,10 +626,10 @@
         <v>13.5231</v>
       </c>
       <c r="O3">
-        <v>0.46860070187709</v>
+        <v>0.6674976884799527</v>
       </c>
       <c r="P3">
-        <v>0.5315302656157724</v>
+        <v>0.6847139587196941</v>
       </c>
       <c r="Q3">
         <v>1.171985471766667</v>
@@ -638,10 +638,10 @@
         <v>10.5478692459</v>
       </c>
       <c r="S3">
-        <v>0.46860070187709</v>
+        <v>0.6674976884799527</v>
       </c>
       <c r="T3">
-        <v>0.5315302656157724</v>
+        <v>0.6847139587196941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +667,7 @@
         <v>0.2599963333333333</v>
       </c>
       <c r="H4">
-        <v>0.7799889999999999</v>
+        <v>0.779989</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.389713</v>
+        <v>0.8214893333333334</v>
       </c>
       <c r="N4">
-        <v>1.169139</v>
+        <v>2.464468</v>
       </c>
       <c r="O4">
-        <v>0.04051285252581724</v>
+        <v>0.1216456798613345</v>
       </c>
       <c r="P4">
-        <v>0.0459534251178915</v>
+        <v>0.1247831961915542</v>
       </c>
       <c r="Q4">
-        <v>0.1013239510523333</v>
+        <v>0.2135842145391111</v>
       </c>
       <c r="R4">
-        <v>0.9119155594709999</v>
+        <v>1.922257930852</v>
       </c>
       <c r="S4">
-        <v>0.04051285252581724</v>
+        <v>0.1216456798613345</v>
       </c>
       <c r="T4">
-        <v>0.0459534251178915</v>
+        <v>0.1247831961915542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.2599963333333333</v>
       </c>
       <c r="H5">
-        <v>0.7799889999999999</v>
+        <v>0.779989</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.4166465</v>
+        <v>0.509397</v>
       </c>
       <c r="N5">
-        <v>6.833292999999999</v>
+        <v>1.018794</v>
       </c>
       <c r="O5">
-        <v>0.3551795700614289</v>
+        <v>0.07543122213515151</v>
       </c>
       <c r="P5">
-        <v>0.2685850169946535</v>
+        <v>0.0515845089409878</v>
       </c>
       <c r="Q5">
-        <v>0.8883155622961666</v>
+        <v>0.132441352211</v>
       </c>
       <c r="R5">
-        <v>5.329893373776999</v>
+        <v>0.794648113266</v>
       </c>
       <c r="S5">
-        <v>0.3551795700614289</v>
+        <v>0.07543122213515151</v>
       </c>
       <c r="T5">
-        <v>0.2685850169946535</v>
+        <v>0.0515845089409878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.2599963333333333</v>
       </c>
       <c r="H6">
-        <v>0.7799889999999999</v>
+        <v>0.779989</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3757736666666667</v>
+        <v>0.5844356666666667</v>
       </c>
       <c r="N6">
-        <v>1.127321</v>
+        <v>1.753307</v>
       </c>
       <c r="O6">
-        <v>0.03906378063023885</v>
+        <v>0.08654290582009454</v>
       </c>
       <c r="P6">
-        <v>0.04430975372246292</v>
+        <v>0.08877504246962241</v>
       </c>
       <c r="Q6">
-        <v>0.09769977549655555</v>
+        <v>0.1519511304025556</v>
       </c>
       <c r="R6">
-        <v>0.8792979794689999</v>
+        <v>1.367560173623</v>
       </c>
       <c r="S6">
-        <v>0.03906378063023885</v>
+        <v>0.08654290582009454</v>
       </c>
       <c r="T6">
-        <v>0.04430975372246292</v>
+        <v>0.08877504246962241</v>
       </c>
     </row>
   </sheetData>
